--- a/MeetingFiles/FilesForMeeting_5_6_2020/Measurement/CV- curves/bby40Measurement.xlsx
+++ b/MeetingFiles/FilesForMeeting_5_6_2020/Measurement/CV- curves/bby40Measurement.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\GitHub\Capstone_Rohde-Schwarz_Team13\Measurements\Capacitance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\GitHub\Capstone_Rohde-Schwarz_Team13\MeetingFiles\FilesForMeeting_5_6_2020\Measurement\CV- curves\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{128D5262-B4E9-464F-9EBD-45A35317CDA8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{229EA993-1146-4785-B2DA-0C7547B601E0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="-120" windowWidth="37590" windowHeight="16440" xr2:uid="{58422E9B-39CD-4184-8B40-DBDFB5000FDB}"/>
+    <workbookView xWindow="38280" yWindow="-6810" windowWidth="16440" windowHeight="28440" xr2:uid="{58422E9B-39CD-4184-8B40-DBDFB5000FDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1247,16 +1247,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>566737</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>423862</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>261937</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>423862</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1595,7 +1595,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
